--- a/file/schedule.xlsx
+++ b/file/schedule.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="C2" s="10" t="inlineStr">
         <is>
-          <t>Network Application Security</t>
+          <t>Applied applications analysis</t>
         </is>
       </c>
       <c r="D2" s="10" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>Network Application Security</t>
+          <t>Cloud computing applications</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="C4" s="10" t="inlineStr">
         <is>
-          <t>Philosophy</t>
+          <t>Applied applications analysis</t>
         </is>
       </c>
       <c r="D4" s="10" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="C5" s="10" t="inlineStr">
         <is>
-          <t>Philosophy</t>
+          <t>Software quality assurance and testing 2</t>
         </is>
       </c>
       <c r="D5" s="10" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>Applied application analysis</t>
+          <t>Software quality assurance and testing 2</t>
         </is>
       </c>
       <c r="D6" s="10" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="C7" s="10" t="inlineStr">
         <is>
-          <t>Applied application analysis</t>
+          <t>Cloud computing applications</t>
         </is>
       </c>
       <c r="D7" s="10" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="C8" s="10" t="inlineStr">
         <is>
-          <t>Information Security Fundamentals</t>
+          <t>Cloud computing applications</t>
         </is>
       </c>
       <c r="D8" s="10" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>Information Security Fundamentals</t>
+          <t>Cloud computing applications</t>
         </is>
       </c>
       <c r="D9" s="10" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="C10" s="10" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Applied applications analysis</t>
         </is>
       </c>
       <c r="D10" s="10" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="C11" s="10" t="inlineStr">
         <is>
-          <t>Research Method and Tools</t>
+          <t>Software quality assurance and testing 2</t>
         </is>
       </c>
       <c r="D11" s="10" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
-          <t>Research Method and Tools</t>
+          <t>Cloud computing applications</t>
         </is>
       </c>
       <c r="D12" s="10" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
-          <t>Philosophy</t>
+          <t>Applied applications analysis</t>
         </is>
       </c>
       <c r="D13" s="10" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
-          <t>Philosophy</t>
+          <t>Cloud computing applications</t>
         </is>
       </c>
       <c r="D14" s="10" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="C15" s="10" t="inlineStr">
         <is>
-          <t>Information Security Fundamentals/Network Application Security</t>
+          <t>Cloud computing applications</t>
         </is>
       </c>
       <c r="D15" s="10" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="C16" s="10" t="inlineStr">
         <is>
-          <t>Information Security Fundamentals/Network Application Security</t>
+          <t>Cloud computing applications</t>
         </is>
       </c>
       <c r="D16" s="10" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="C17" s="10" t="inlineStr">
         <is>
-          <t>Research Method and Tools</t>
+          <t>Software quality assurance and testing 2</t>
         </is>
       </c>
       <c r="D17" s="10" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="C18" s="10" t="inlineStr">
         <is>
-          <t>Research Method and Tools</t>
+          <t>Software quality assurance and testing 2</t>
         </is>
       </c>
       <c r="D18" s="10" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="C19" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distributed algorithm and parallel computing </t>
+          <t>Cloud computing applications</t>
         </is>
       </c>
       <c r="D19" s="10" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="C20" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distributed algorithm and parallel computing </t>
+          <t>Cloud computing applications</t>
         </is>
       </c>
       <c r="D20" s="10" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="C21" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distributed algorithm and parallel computing </t>
+          <t>Cloud computing applications</t>
         </is>
       </c>
       <c r="D21" s="10" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="C22" s="10" t="inlineStr">
         <is>
-          <t>Information Security Fundamentals</t>
+          <t>Applied applications analysis</t>
         </is>
       </c>
       <c r="D22" s="10" t="inlineStr">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="C23" s="10" t="inlineStr">
         <is>
-          <t>Applied application analysis</t>
+          <t>Cloud computing applications</t>
         </is>
       </c>
       <c r="D23" s="10" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C24" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distributed algorithm and parallel computing </t>
+          <t>Cloud computing applications</t>
         </is>
       </c>
       <c r="D24" s="10" t="inlineStr">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="C25" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distributed algorithm and parallel computing </t>
+          <t>Applied applications analysis</t>
         </is>
       </c>
       <c r="D25" s="10" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="C26" s="8" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Software quality assurance and testing 2</t>
         </is>
       </c>
       <c r="D26" s="10" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Applied applications analysis</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="C28" s="10" t="inlineStr">
         <is>
-          <t>Research Method and Tools</t>
+          <t>Software quality assurance and testing 2</t>
         </is>
       </c>
       <c r="D28" s="10" t="inlineStr">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="C29" s="10" t="inlineStr">
         <is>
-          <t>Philosophy</t>
+          <t>Cloud computing applications</t>
         </is>
       </c>
       <c r="D29" s="10" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="C30" s="10" t="inlineStr">
         <is>
-          <t>Applied application analysis</t>
+          <t>Cloud computing applications</t>
         </is>
       </c>
       <c r="D30" s="10" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="C31" s="10" t="inlineStr">
         <is>
-          <t>Applied application analysis</t>
+          <t>Cloud computing applications</t>
         </is>
       </c>
       <c r="D31" s="10" t="inlineStr">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="C32" s="10" t="inlineStr">
         <is>
-          <t>Network Application Security</t>
+          <t>Applied applications analysis</t>
         </is>
       </c>
       <c r="D32" s="10" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="C33" s="10" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Software quality assurance and testing 2</t>
         </is>
       </c>
       <c r="D33" s="10" t="inlineStr">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="C34" s="10" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Applied applications analysis</t>
         </is>
       </c>
       <c r="D34" s="10" t="inlineStr">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="C2" s="10" t="inlineStr">
         <is>
-          <t>Research Method and Tools</t>
+          <t>Cloud computing applications</t>
         </is>
       </c>
       <c r="D2" s="10" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>Research Method and Tools</t>
+          <t>Cloud computing applications</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="C4" s="10" t="inlineStr">
         <is>
-          <t>Software Quality Assurance and Testing</t>
+          <t>Applied applications analysis</t>
         </is>
       </c>
       <c r="D4" s="10" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="C5" s="10" t="inlineStr">
         <is>
-          <t>Software Quality Assurance and Testing</t>
+          <t>Applied applications analysis</t>
         </is>
       </c>
       <c r="D5" s="10" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>Embedded System Design</t>
+          <t>Cloud computing applications</t>
         </is>
       </c>
       <c r="D6" s="10" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="C7" s="10" t="inlineStr">
         <is>
-          <t>Embedded System Design</t>
+          <t>Cloud computing applications</t>
         </is>
       </c>
       <c r="D7" s="10" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="C8" s="10" t="inlineStr">
         <is>
-          <t>Research Method and Tools</t>
+          <t>Applied applications analysis</t>
         </is>
       </c>
       <c r="D8" s="10" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>Research Method and Tools</t>
+          <t>Cloud computing applications</t>
         </is>
       </c>
       <c r="D9" s="10" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="C10" s="10" t="inlineStr">
         <is>
-          <t>Philosophy</t>
+          <t>Software quality assurance and testing 1</t>
         </is>
       </c>
       <c r="D10" s="10" t="inlineStr">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="C11" s="10" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Cloud computing applications</t>
         </is>
       </c>
       <c r="D11" s="10" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Software quality assurance and testing 1</t>
         </is>
       </c>
       <c r="D12" s="10" t="inlineStr">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
-          <t>Applied application analysis</t>
+          <t>Cloud computing applications</t>
         </is>
       </c>
       <c r="D13" s="10" t="inlineStr">
@@ -1917,7 +1917,7 @@
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
-          <t>Applied application analysis</t>
+          <t>Applied applications analysis</t>
         </is>
       </c>
       <c r="D14" s="10" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="C15" s="10" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Cloud computing applications</t>
         </is>
       </c>
       <c r="D15" s="10" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="C16" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distributed algorithm and parallel computing </t>
+          <t>Applied applications analysis</t>
         </is>
       </c>
       <c r="D16" s="10" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="C17" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distributed algorithm and parallel computing </t>
+          <t>Applied applications analysis</t>
         </is>
       </c>
       <c r="D17" s="10" t="inlineStr">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="C18" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distributed algorithm and parallel computing </t>
+          <t>Applied applications analysis</t>
         </is>
       </c>
       <c r="D18" s="10" t="inlineStr">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C19" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distributed algorithm and parallel computing </t>
+          <t>Software quality assurance and testing 1</t>
         </is>
       </c>
       <c r="D19" s="10" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="C20" s="10" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Cloud computing applications</t>
         </is>
       </c>
       <c r="D20" s="10" t="inlineStr">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="C21" s="10" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Software quality assurance and testing 1</t>
         </is>
       </c>
       <c r="D21" s="10" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="C22" s="10" t="inlineStr">
         <is>
-          <t>Philosophy</t>
+          <t>Software quality assurance and testing 1</t>
         </is>
       </c>
       <c r="D22" s="10" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="C23" s="10" t="inlineStr">
         <is>
-          <t>Philosophy</t>
+          <t>Cloud computing applications</t>
         </is>
       </c>
       <c r="D23" s="10" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="C24" s="10" t="inlineStr">
         <is>
-          <t>Software Quality Assurance and Testing</t>
+          <t>Applied applications analysis</t>
         </is>
       </c>
       <c r="D24" s="10" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="C25" s="8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distributed algorithm and parallel computing </t>
+          <t>Cloud computing applications</t>
         </is>
       </c>
       <c r="D25" s="10" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>Applied application analysis</t>
+          <t>Software quality assurance and testing 1</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="C27" s="10" t="inlineStr">
         <is>
-          <t>Software Quality Assurance and Testing/Embedded System Design</t>
+          <t>Software quality assurance and testing 1</t>
         </is>
       </c>
       <c r="D27" s="10" t="inlineStr">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="C28" s="10" t="inlineStr">
         <is>
-          <t>Software Quality Assurance and Testing/Embedded System Design</t>
+          <t>Applied applications analysis</t>
         </is>
       </c>
       <c r="D28" s="10" t="inlineStr">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="C29" s="10" t="inlineStr">
         <is>
-          <t>Research Method and Tools</t>
+          <t>Cloud computing applications</t>
         </is>
       </c>
       <c r="D29" s="10" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="C30" s="10" t="inlineStr">
         <is>
-          <t>Philosophy</t>
+          <t>Cloud computing applications</t>
         </is>
       </c>
       <c r="D30" s="10" t="inlineStr">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="C31" s="10" t="inlineStr">
         <is>
-          <t>Philosophy</t>
+          <t>Software quality assurance and testing 1</t>
         </is>
       </c>
       <c r="D31" s="10" t="inlineStr">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="C32" s="10" t="inlineStr">
         <is>
-          <t>Applied application analysis</t>
+          <t>Applied applications analysis</t>
         </is>
       </c>
       <c r="D32" s="10" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="C33" s="10" t="inlineStr">
         <is>
-          <t>Applied application analysis</t>
+          <t>Cloud computing applications</t>
         </is>
       </c>
       <c r="D33" s="10" t="inlineStr">
@@ -2489,7 +2489,7 @@
       </c>
       <c r="C34" s="10" t="inlineStr">
         <is>
-          <t>Embedded System Design</t>
+          <t>Software quality assurance and testing 1</t>
         </is>
       </c>
       <c r="D34" s="10" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="C2" s="10" t="inlineStr">
         <is>
-          <t>Information Security Fundamentals</t>
+          <t>Real-time operating systems</t>
         </is>
       </c>
       <c r="D2" s="10" t="inlineStr">
@@ -2614,7 +2614,7 @@
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>Real-time Operating Systems</t>
+          <t>Real-time operating systems</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="C4" s="10" t="inlineStr">
         <is>
-          <t>Real-time Operating Systems</t>
+          <t>Applied applications analysis</t>
         </is>
       </c>
       <c r="D4" s="10" t="inlineStr">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="C5" s="10" t="inlineStr">
         <is>
-          <t>Industry 4.0</t>
+          <t>Real-time operating systems</t>
         </is>
       </c>
       <c r="D5" s="10" t="inlineStr">
@@ -2698,7 +2698,7 @@
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>Industry 4.0</t>
+          <t>Applied applications analysis</t>
         </is>
       </c>
       <c r="D6" s="10" t="inlineStr">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="C7" s="10" t="inlineStr">
         <is>
-          <t>Sociology</t>
+          <t>Real-time operating systems</t>
         </is>
       </c>
       <c r="D7" s="10" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="C8" s="10" t="inlineStr">
         <is>
-          <t>Sociology</t>
+          <t>Real-time operating systems</t>
         </is>
       </c>
       <c r="D8" s="10" t="inlineStr">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Real-time operating systems</t>
         </is>
       </c>
       <c r="D9" s="10" t="inlineStr">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="C10" s="10" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Applied applications analysis</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="C11" s="10" t="inlineStr">
         <is>
-          <t>Real-time Operating Systems</t>
+          <t>Applied applications analysis</t>
         </is>
       </c>
       <c r="D11" s="10" t="inlineStr">
@@ -2870,7 +2870,7 @@
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
-          <t>Real-time Operating Systems</t>
+          <t>Applied applications analysis</t>
         </is>
       </c>
       <c r="D12" s="10" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Real-time operating systems</t>
         </is>
       </c>
       <c r="D13" s="10" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Real-time operating systems</t>
         </is>
       </c>
       <c r="D14" s="10" t="inlineStr">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="C15" s="10" t="inlineStr">
         <is>
-          <t>Information Security Fundamentals</t>
+          <t>Applied applications analysis</t>
         </is>
       </c>
       <c r="D15" s="10" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="C16" s="10" t="inlineStr">
         <is>
-          <t>Information Security Fundamentals</t>
+          <t>Applied applications analysis</t>
         </is>
       </c>
       <c r="D16" s="10" t="inlineStr">
@@ -3014,7 +3014,7 @@
       </c>
       <c r="C17" s="10" t="inlineStr">
         <is>
-          <t>Applied applications analysis</t>
+          <t>Real-time operating systems</t>
         </is>
       </c>
       <c r="D17" s="10" t="inlineStr">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="C19" s="10" t="inlineStr">
         <is>
-          <t>Industry 4.0</t>
+          <t>Real-time operating systems</t>
         </is>
       </c>
       <c r="D19" s="10" t="inlineStr">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="C20" s="10" t="inlineStr">
         <is>
-          <t>Industry 4.0</t>
+          <t>Applied applications analysis</t>
         </is>
       </c>
       <c r="D20" s="10" t="inlineStr">
@@ -3130,7 +3130,7 @@
       </c>
       <c r="C21" s="10" t="inlineStr">
         <is>
-          <t>Information Security Fundamentals</t>
+          <t>Real-time operating systems</t>
         </is>
       </c>
       <c r="D21" s="10" t="inlineStr">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="C22" s="10" t="inlineStr">
         <is>
-          <t>Information Security Fundamentals</t>
+          <t>Applied applications analysis</t>
         </is>
       </c>
       <c r="D22" s="10" t="inlineStr">
@@ -3186,7 +3186,7 @@
       </c>
       <c r="C23" s="10" t="inlineStr">
         <is>
-          <t>Real-time Operating Systems</t>
+          <t>Applied applications analysis</t>
         </is>
       </c>
       <c r="D23" s="10" t="inlineStr">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="C24" s="10" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Real-time operating systems</t>
         </is>
       </c>
       <c r="D24" s="10" t="inlineStr">
@@ -3270,7 +3270,7 @@
       </c>
       <c r="C26" s="10" t="inlineStr">
         <is>
-          <t>Industry 4.0</t>
+          <t>Applied applications analysis</t>
         </is>
       </c>
       <c r="D26" s="10" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C27" s="10" t="inlineStr">
         <is>
-          <t>Applied applications analysis</t>
+          <t>Real-time operating systems</t>
         </is>
       </c>
       <c r="D27" s="10" t="inlineStr">
@@ -3330,7 +3330,7 @@
       </c>
       <c r="C28" s="10" t="inlineStr">
         <is>
-          <t>Applied applications analysis</t>
+          <t>Real-time operating systems</t>
         </is>
       </c>
       <c r="D28" s="10" t="inlineStr">
